--- a/soccer_teams.xlsx
+++ b/soccer_teams.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxime Lacroix\Desktop\nba_bets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAC60F7-57F2-4735-8999-B2902DE111E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26D5413-B76E-4F88-A855-91E748E72B77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="1695" windowWidth="20730" windowHeight="11160" xr2:uid="{7911D11F-22D5-4B18-8FA5-9372072C30AE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="128">
   <si>
     <t>Team</t>
   </si>
@@ -217,6 +217,207 @@
   </si>
   <si>
     <t>Werder Bremen</t>
+  </si>
+  <si>
+    <t>Bordeaux</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Nimes</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Angers SCO</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>AS Monaco FC</t>
+  </si>
+  <si>
+    <t>St Etienne</t>
+  </si>
+  <si>
+    <t>AS Saint-Etienne</t>
+  </si>
+  <si>
+    <t>Dijon FCO</t>
+  </si>
+  <si>
+    <t>FC Girondins Bordeaux</t>
+  </si>
+  <si>
+    <t>FC Lorient</t>
+  </si>
+  <si>
+    <t>FC Metz</t>
+  </si>
+  <si>
+    <t>FC Nantes</t>
+  </si>
+  <si>
+    <t>LOSC Lille</t>
+  </si>
+  <si>
+    <t>Montpellier HSC</t>
+  </si>
+  <si>
+    <t>OGC Nice</t>
+  </si>
+  <si>
+    <t>Olympique Lyonnais</t>
+  </si>
+  <si>
+    <t>Olympique Marseille</t>
+  </si>
+  <si>
+    <t>Olympique Nimes</t>
+  </si>
+  <si>
+    <t>Paris Saint-Germain</t>
+  </si>
+  <si>
+    <t>Paris Saint-Germain FC</t>
+  </si>
+  <si>
+    <t>RC Lens</t>
+  </si>
+  <si>
+    <t>RC Strasbourg Alsace</t>
+  </si>
+  <si>
+    <t>Stade Brestois 29</t>
+  </si>
+  <si>
+    <t>Stade Reims</t>
+  </si>
+  <si>
+    <t>Stade Rennes</t>
+  </si>
+  <si>
+    <t>Stade Rennais FC</t>
+  </si>
+  <si>
+    <t>Waasland-Beveren</t>
+  </si>
+  <si>
+    <t>Eupen</t>
+  </si>
+  <si>
+    <t>Antwerp</t>
+  </si>
+  <si>
+    <t>Anderlecht</t>
+  </si>
+  <si>
+    <t>Genk</t>
+  </si>
+  <si>
+    <t>Mouscron-Peruwelz</t>
+  </si>
+  <si>
+    <t>Cercle Brugge</t>
+  </si>
+  <si>
+    <t>Club Brugge</t>
+  </si>
+  <si>
+    <t>KFCO Beerschot-Wilrijk</t>
+  </si>
+  <si>
+    <t>K Beerschot VA</t>
+  </si>
+  <si>
+    <t>KAA Gent</t>
+  </si>
+  <si>
+    <t>KAS Eupen</t>
+  </si>
+  <si>
+    <t>KRC Genk</t>
+  </si>
+  <si>
+    <t>KV Kortrijk</t>
+  </si>
+  <si>
+    <t>KV Oostende</t>
+  </si>
+  <si>
+    <t>OH Leuven</t>
+  </si>
+  <si>
+    <t>Oud-Heverlee Leuven</t>
+  </si>
+  <si>
+    <t>Royal Antwerp FC</t>
+  </si>
+  <si>
+    <t>Sporting de Charleroi</t>
+  </si>
+  <si>
+    <t>Royal Charleroi SC</t>
+  </si>
+  <si>
+    <t>Royal Excel Mouscron</t>
+  </si>
+  <si>
+    <t>RSC Anderlecht</t>
+  </si>
+  <si>
+    <t>St. Truidense</t>
+  </si>
+  <si>
+    <t>St. Truidense VV</t>
+  </si>
+  <si>
+    <t>Standard Liege</t>
+  </si>
+  <si>
+    <t>SV Zulte Waregem</t>
+  </si>
+  <si>
+    <t>KV Mechelen</t>
+  </si>
+  <si>
+    <t>Yellow-Red KV Mechelen</t>
   </si>
 </sst>
 </file>
@@ -568,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB1773B-D287-4AE4-9FE6-28F556AC7A2C}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W66" sqref="W66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,9 +1092,313 @@
         <v>60</v>
       </c>
     </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>106</v>
+      </c>
+      <c r="B60" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>108</v>
+      </c>
+      <c r="B62" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>101</v>
+      </c>
+      <c r="B64" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>104</v>
+      </c>
+      <c r="B65" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>113</v>
+      </c>
+      <c r="B66" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>115</v>
+      </c>
+      <c r="B68" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>102</v>
+      </c>
+      <c r="B69" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>118</v>
+      </c>
+      <c r="B70" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>105</v>
+      </c>
+      <c r="B71" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>103</v>
+      </c>
+      <c r="B72" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>122</v>
+      </c>
+      <c r="B73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>124</v>
+      </c>
+      <c r="B74" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>125</v>
+      </c>
+      <c r="B75" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>100</v>
+      </c>
+      <c r="B76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>126</v>
+      </c>
+      <c r="B77" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B22:B39">
-    <sortCondition ref="B22:B39"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H62:H80">
+    <sortCondition ref="H62:H80"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
